--- a/SchedulingData/static4/pso/scheduling1_10.xlsx
+++ b/SchedulingData/static4/pso/scheduling1_10.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>53.1</v>
+        <v>48.1</v>
       </c>
       <c r="E2" t="n">
         <v>26.88</v>
@@ -485,79 +485,79 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>48.1</v>
       </c>
       <c r="D3" t="n">
-        <v>74.90000000000001</v>
+        <v>119.04</v>
       </c>
       <c r="E3" t="n">
-        <v>27.16</v>
+        <v>22.896</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>82.09999999999999</v>
+        <v>85.26000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>24.96</v>
+        <v>24.624</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>74.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>122.1</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>23.08</v>
+        <v>24.96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>82.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>161.5</v>
+        <v>68.56</v>
       </c>
       <c r="E6" t="n">
-        <v>19.64</v>
+        <v>26.304</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -565,146 +565,146 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>53.1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>121.5</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>21.18</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>83.56</v>
+        <v>49.1</v>
       </c>
       <c r="E8" t="n">
-        <v>26.304</v>
+        <v>27.28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>68.56</v>
       </c>
       <c r="D9" t="n">
-        <v>91.54000000000001</v>
+        <v>124.86</v>
       </c>
       <c r="E9" t="n">
-        <v>25.996</v>
+        <v>22.784</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>61.22</v>
+        <v>121.22</v>
       </c>
       <c r="E10" t="n">
-        <v>26.568</v>
+        <v>22.188</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>91.54000000000001</v>
+        <v>49.1</v>
       </c>
       <c r="D11" t="n">
-        <v>162.94</v>
+        <v>109.06</v>
       </c>
       <c r="E11" t="n">
-        <v>22.476</v>
+        <v>22.924</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>83.56</v>
+        <v>124.86</v>
       </c>
       <c r="D12" t="n">
-        <v>148.22</v>
+        <v>177.78</v>
       </c>
       <c r="E12" t="n">
-        <v>21.948</v>
+        <v>19.132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>122.1</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>178.1</v>
+        <v>129.62</v>
       </c>
       <c r="E13" t="n">
-        <v>19.6</v>
+        <v>20.868</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>61.22</v>
+        <v>85.26000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>129.34</v>
+        <v>151.26</v>
       </c>
       <c r="E14" t="n">
-        <v>22.356</v>
+        <v>21.144</v>
       </c>
     </row>
     <row r="15">
@@ -713,226 +713,226 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>162.94</v>
+        <v>121.22</v>
       </c>
       <c r="D15" t="n">
-        <v>229.54</v>
+        <v>173.92</v>
       </c>
       <c r="E15" t="n">
-        <v>20.396</v>
+        <v>18.548</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>229.54</v>
+        <v>109.06</v>
       </c>
       <c r="D16" t="n">
-        <v>273.46</v>
+        <v>150</v>
       </c>
       <c r="E16" t="n">
-        <v>17.624</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>161.5</v>
+        <v>119.04</v>
       </c>
       <c r="D17" t="n">
-        <v>242.24</v>
+        <v>209.56</v>
       </c>
       <c r="E17" t="n">
-        <v>16.676</v>
+        <v>17.464</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>129.34</v>
+        <v>173.92</v>
       </c>
       <c r="D18" t="n">
-        <v>191.94</v>
+        <v>259.86</v>
       </c>
       <c r="E18" t="n">
-        <v>19.716</v>
+        <v>15.044</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>191.94</v>
+        <v>151.26</v>
       </c>
       <c r="D19" t="n">
-        <v>233.38</v>
+        <v>204.06</v>
       </c>
       <c r="E19" t="n">
-        <v>16.212</v>
+        <v>18.504</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>273.46</v>
+        <v>177.78</v>
       </c>
       <c r="D20" t="n">
-        <v>326.16</v>
+        <v>249.98</v>
       </c>
       <c r="E20" t="n">
-        <v>13.984</v>
+        <v>16.012</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>233.38</v>
+        <v>150</v>
       </c>
       <c r="D21" t="n">
-        <v>301.38</v>
+        <v>209.5</v>
       </c>
       <c r="E21" t="n">
-        <v>13.492</v>
+        <v>17.12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>242.24</v>
+        <v>249.98</v>
       </c>
       <c r="D22" t="n">
-        <v>303.28</v>
+        <v>298.32</v>
       </c>
       <c r="E22" t="n">
-        <v>12.692</v>
+        <v>13.308</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>303.28</v>
+        <v>209.56</v>
       </c>
       <c r="D23" t="n">
-        <v>353</v>
+        <v>275.7</v>
       </c>
       <c r="E23" t="n">
-        <v>9.859999999999999</v>
+        <v>13.46</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>148.22</v>
+        <v>209.5</v>
       </c>
       <c r="D24" t="n">
-        <v>247.98</v>
+        <v>265.56</v>
       </c>
       <c r="E24" t="n">
-        <v>16.572</v>
+        <v>14.624</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>121.5</v>
+        <v>259.86</v>
       </c>
       <c r="D25" t="n">
-        <v>157.76</v>
+        <v>321.86</v>
       </c>
       <c r="E25" t="n">
-        <v>18.684</v>
+        <v>10.964</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>247.98</v>
+        <v>265.56</v>
       </c>
       <c r="D26" t="n">
-        <v>302.6</v>
+        <v>331.36</v>
       </c>
       <c r="E26" t="n">
-        <v>14.24</v>
+        <v>10.664</v>
       </c>
     </row>
     <row r="27">
@@ -941,131 +941,131 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>178.1</v>
+        <v>275.7</v>
       </c>
       <c r="D27" t="n">
-        <v>255.3</v>
+        <v>325.32</v>
       </c>
       <c r="E27" t="n">
-        <v>16.48</v>
+        <v>11.128</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>302.6</v>
+        <v>331.36</v>
       </c>
       <c r="D28" t="n">
-        <v>365.64</v>
+        <v>378.96</v>
       </c>
       <c r="E28" t="n">
-        <v>11.536</v>
+        <v>7.544</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>157.76</v>
+        <v>204.06</v>
       </c>
       <c r="D29" t="n">
-        <v>230.16</v>
+        <v>253.48</v>
       </c>
       <c r="E29" t="n">
-        <v>15.564</v>
+        <v>15.672</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>230.16</v>
+        <v>253.48</v>
       </c>
       <c r="D30" t="n">
-        <v>286.16</v>
+        <v>317.98</v>
       </c>
       <c r="E30" t="n">
-        <v>11.604</v>
+        <v>10.352</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>286.16</v>
+        <v>129.62</v>
       </c>
       <c r="D31" t="n">
-        <v>367.76</v>
+        <v>197.74</v>
       </c>
       <c r="E31" t="n">
-        <v>8.523999999999999</v>
+        <v>16.656</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>301.38</v>
+        <v>317.98</v>
       </c>
       <c r="D32" t="n">
-        <v>373.7</v>
+        <v>360.08</v>
       </c>
       <c r="E32" t="n">
-        <v>9.84</v>
+        <v>7.272</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>255.3</v>
+        <v>197.74</v>
       </c>
       <c r="D33" t="n">
-        <v>320.92</v>
+        <v>244.54</v>
       </c>
       <c r="E33" t="n">
-        <v>11.048</v>
+        <v>14.576</v>
       </c>
     </row>
   </sheetData>
